--- a/data/crude_oil_sentiment_score_.xlsx
+++ b/data/crude_oil_sentiment_score_.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G286"/>
+  <dimension ref="A1:G306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10572,6 +10572,737 @@
         <v>-0.5266999999999999</v>
       </c>
     </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/libya-nudges-output-higher-noc-123702569.html</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Editorial Dept</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>2025-09-22T12:37:02Z</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Libya Nudges Output Higher as NOC Targets 2 Million bpd</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>Libya’s crude oil output reached 1,388,330 barrels per day over the past 24 hours</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>Libya’s crude oil output reached 1,388,330 barrels per day over the past 24 hours, up from 1,380,756 bpd the day before, the National Oil Corporation (NOC) said on Saturday. Condensate production was… [+2179 chars]</t>
+        </is>
+      </c>
+      <c r="G287" t="n">
+        <v>-0.5106000000000001</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/u-asia-oil-arbitrage-narrows-071500049.html</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Irina Slav</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>2025-09-23T07:15:00Z</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>U.S.-Asia Oil Arbitrage Narrows as Freight Costs Surge</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>Rising tanker rates and higher WTI prices are closing the arbitrage window for U.S. crude exports to Asia.</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>The arbitrage window for U.S. crude sold in Asia is shrinking amid higher tanker rates and a climbing WTI price, Reuters has reported, citing traders.
+The publication cited LSEG data showing that Ve… [+1742 chars]</t>
+        </is>
+      </c>
+      <c r="G288" t="n">
+        <v>-0.5719</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/why-exxon-mobil-xom-top-020647756.html</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Sultan Khalid</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>2025-09-24T02:06:47Z</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Why Exxon Mobil (XOM) is a Top Dividend Stock to Buy Now</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>Exxon Mobil Corporation (NYSE:XOM) is included among the 15 Best Natural Gas and Oil Dividend Stock to Buy Now. A behemoth of the global oil and gas industry...</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>Exxon Mobil Corporation (NYSE:XOM) is included among the 15 Best Natural Gas and Oil Dividend Stock to Buy Now.
+Why Exxon Mobil (XOM) is a Top Dividend Stock to Buy Now
+A behemoth of the global oil… [+1462 chars]</t>
+        </is>
+      </c>
+      <c r="G289" t="n">
+        <v>0.8519</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/why-oneok-oke-among-best-021126869.html</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Sultan Khalid</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>2025-09-24T02:11:26Z</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Here is Why ONEOK (OKE) is Among the Best Oil and Gas Dividend Stocks to Buy Now</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>ONEOK, Inc. (NYSE:OKE) is included among the 15 Best Natural Gas and Oil Dividend Stock to Buy Now. Known for its stable cash flows backed by government...</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>ONEOK, Inc. (NYSE:OKE) is included among the 15 Best Natural Gas and Oil Dividend Stock to Buy Now.
+Here is Why ONEOK (OKE) is Among the Best Oil and Gas Dividend Stocks to Buy Now
+Known for its st… [+1477 chars]</t>
+        </is>
+      </c>
+      <c r="G290" t="n">
+        <v>0.9442</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/eog-resources-eog-strong-dividend-020915377.html</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Sultan Khalid</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>2025-09-24T02:09:15Z</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>EOG Resources (EOG) – A Strong Dividend Stock for Your Portfolio</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>EOG Resources, Inc. (NYSE:EOG) is included among the 15 Best Natural Gas and Oil Dividend Stock to Buy Now. EOG Resources, Inc. (NYSE:EOG) generated $1...</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>EOG Resources, Inc. (NYSE:EOG) is included among the 15 Best Natural Gas and Oil Dividend Stock to Buy Now.
+EOG Resources (EOG) - A Strong Dividend Stock for Your Portfolio
+EOG Resources, Inc. (NYS… [+1447 chars]</t>
+        </is>
+      </c>
+      <c r="G291" t="n">
+        <v>0.9231</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/why-chord-energy-chrd-makes-020926536.html</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Sultan Khalid</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>2025-09-24T02:09:26Z</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Here is Why Chord Energy (CHRD) Makes for a Great Dividend Stock</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>Chord Energy Corporation (NASDAQ:CHRD) is included among the 15 Best Natural Gas and Oil Dividend Stock to Buy Now. Chord Energy Corporation (NASDAQ:CHRD...</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>Chord Energy Corporation (NASDAQ:CHRD) is included among the 15 Best Natural Gas and Oil Dividend Stock to Buy Now.
+Why Robert Half (RHI) Stands Out Among Safest High Dividend Stocks in Staffing
+Ph… [+1593 chars]</t>
+        </is>
+      </c>
+      <c r="G292" t="n">
+        <v>0.9493</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/oil-rises-us-crude-stockpile-004110031.html</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Laila Kearney</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>2025-09-24T00:41:10Z</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Oil rises as US crude stockpile drop adds to sense of tighter supply</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>(Reuters) -Oil prices rose for a second day on Wednesday as an industry report showed U.S. crude inventories declined last week, adding to a sense in the...</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>By Laila Kearney
+(Reuters) -Oil prices rose for a second day on Wednesday as an industry report showed U.S. crude inventories declined last week, adding to a sense in the market of tightening suppli… [+1652 chars]</t>
+        </is>
+      </c>
+      <c r="G293" t="n">
+        <v>-0.8591</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/why-conocophillips-cop-among-top-020718925.html</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Sultan Khalid</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>2025-09-24T02:07:18Z</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Why ConocoPhillips (COP) is Among the Top Oil and Gas Dividend Stocks</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>ConocoPhillips (NYSE:COP) is included among the 15 Best Natural Gas and Oil Dividend Stock to Buy Now. With its deep, diverse, and durable portfolio...</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>ConocoPhillips (NYSE:COP) is included among the 15 Best Natural Gas and Oil Dividend Stock to Buy Now.
+Why ConocoPhillips (COP) is Among the Top Oil and Gas Dividend Stocks 
+With its deep, diverse,… [+1670 chars]</t>
+        </is>
+      </c>
+      <c r="G294" t="n">
+        <v>0.8519</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/oil-little-changed-traders-assess-011241698.html</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Anjana Anil</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>2025-09-23T01:12:41Z</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Oil little changed as traders assess supply risks</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>(Reuters) -Oil prices were little changed on Tuesday as traders contemplated the impacts of ongoing geopolitical tensions in the Middle East and Russia...</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>By Anjana Anil
+(Reuters) -Oil prices were little changed on Tuesday as traders contemplated the impacts of ongoing geopolitical tensions in the Middle East and Russia, while worries over trade tarif… [+1931 chars]</t>
+        </is>
+      </c>
+      <c r="G295" t="n">
+        <v>-0.765</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/phillips-66-psx-among-best-021005708.html</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Sultan Khalid</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>2025-09-24T02:10:05Z</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Phillips 66 (PSX) – Among the Best Natural Gas and Oil Dividend Stocks to Invest in</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>Phillips 66 (NYSE:PSX) is included among the 15 Best Natural Gas and Oil Dividend Stock to Buy Now. Known for its high and consistent shareholder returns...</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>Phillips 66 (NYSE:PSX) is included among the 15 Best Natural Gas and Oil Dividend Stock to Buy Now.
+Dividend Paying Stocks With Consistency: What Sets Cisco Systems (CSCO) Apart
+Image by Alexsander… [+1665 chars]</t>
+        </is>
+      </c>
+      <c r="G296" t="n">
+        <v>0.9246</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/permian-resources-corporation-pr-top-020940089.html</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Sultan Khalid</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>2025-09-24T02:09:40Z</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>Permian Resources Corporation (PR) – A Top Dividend Stock Among Hedge Funds</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>Permian Resources Corporation (NYSE:PR) is included among the 15 Best Natural Gas and Oil Dividend Stock to Buy Now. Thanks to its industry-leading cost...</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>Permian Resources Corporation (NYSE:PR) is included among the 15 Best Natural Gas and Oil Dividend Stock to Buy Now.
+Permian Resources Corporation (PR) - A Top Dividend Stock Among Hedge Funds
+Than… [+1617 chars]</t>
+        </is>
+      </c>
+      <c r="G297" t="n">
+        <v>0.8519</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/chevron-corporation-cvx-great-option-020700557.html</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Sultan Khalid</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>2025-09-24T02:07:00Z</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>Chevron Corporation (CVX) – A Great Option for Your Dividend Stock Portfolio</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>Chevron Corporation (NYSE:CVX) is included among the 15 Best Natural Gas and Oil Dividend Stock to Buy Now. Chevron Corporation (NYSE:CVX) made headlines...</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>Chevron Corporation (NYSE:CVX) is included among the 15 Best Natural Gas and Oil Dividend Stock to Buy Now.
+Chevron Corporation (CVX) - A Great Option for Your Dividend Stock Portfolio
+Chevron Corp… [+1784 chars]</t>
+        </is>
+      </c>
+      <c r="G298" t="n">
+        <v>0.9423</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/kinder-morgan-kmi-great-dividend-020752013.html</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Sultan Khalid</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>2025-09-24T02:07:52Z</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>Kinder Morgan (KMI) – A Great Dividend Stock Amongst the LNG Boom</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>Kinder Morgan, Inc. (NYSE:KMI) is included among the 15 Best Natural Gas and Oil Dividend Stock to Buy Now. Kinder Morgan, Inc. (NYSE:KMI), a company that...</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>Kinder Morgan, Inc. (NYSE:KMI) is included among the 15 Best Natural Gas and Oil Dividend Stock to Buy Now.
+Kinder Morgan (KMI) - A Great Dividend Stock Amongst the LNG Boom
+Kinder Morgan, Inc. (NY… [+1545 chars]</t>
+        </is>
+      </c>
+      <c r="G299" t="n">
+        <v>0.9812</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/why-civitas-resources-civi-great-021107087.html</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Sultan Khalid</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>2025-09-24T02:11:07Z</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>Here is Why Civitas Resources (CIVI) is a Great Addition to Your Dividend Portfolio</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>Civitas Resources, Inc. (NYSE:CIVI) is included among the 15 Best Natural Gas and Oil Dividend Stock to Buy Now. To make sure it keeps its shareholders happy...</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>Civitas Resources, Inc. (NYSE:CIVI) is included among the 15 Best Natural Gas and Oil Dividend Stock to Buy Now.
+Here is Why Civitas Resources (CIVI) is a Great Addition to Your Dividend Portfolio
+… [+1985 chars]</t>
+        </is>
+      </c>
+      <c r="G300" t="n">
+        <v>0.9423</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/schlumberger-slb-good-dividend-stock-020733639.html</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Sultan Khalid</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>2025-09-24T02:07:33Z</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>Is Schlumberger (SLB) a Good Dividend Stock to Buy Now?</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>Schlumberger Limited (NYSE:SLB) is included among the 15 Best Natural Gas and Oil Dividend Stock to Buy Now. Schlumberger Limited (NYSE:SLB) completed the...</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>Schlumberger Limited (NYSE:SLB) is included among the 15 Best Natural Gas and Oil Dividend Stock to Buy Now.
+Is Schlumberger (SLB) a Good Dividend Stock to Buy Now?
+Schlumberger Limited (NYSE:SLB) … [+2137 chars]</t>
+        </is>
+      </c>
+      <c r="G301" t="n">
+        <v>0.8767</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/exclusive-chevron-exports-venezuelan-oil-192843739.html</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Marianna Parraga</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>2025-09-23T19:28:43Z</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>Exclusive-Chevron exports of Venezuelan oil halved under new US authorization, sources say</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>HOUSTON (Reuters) -U.S. oil major Chevron is only able to export about half the crude its joint ventures produce in Venezuela with the latest rules laid out ...</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>By Marianna Parraga
+HOUSTON (Reuters) -U.S. oil major Chevron is only able to export about half the crude its joint ventures produce in Venezuela with the latest rules laid out by Washington, three … [+2483 chars]</t>
+        </is>
+      </c>
+      <c r="G302" t="n">
+        <v>-0.5719</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/market-minute-9-23-25-142500377.html</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>MoneyShow</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>2025-09-23T14:25:00Z</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>Market Minute 9-23-25- Gold Surges; Tech Rallies on AI Tie Up</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>Tech stocks rallied yesterday on more dealmaking, while gold surged to a fresh record overnight. This morning, crude oil is bouncing while Treasuries and the...</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>Tech stocks rallied yesterday on more dealmaking, while gold surged to a fresh record overnight. This morning, crude oil is bouncing while Treasuries and the dollar are mostly flat.
+The Artificial I… [+2227 chars]</t>
+        </is>
+      </c>
+      <c r="G303" t="n">
+        <v>-0.128</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/cenovus-energy-cve-among-best-021220769.html</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Sultan Khalid</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>2025-09-24T02:12:20Z</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>Cenovus Energy (CVE) – Among the Best Oil and Gas Dividend Stocks to Buy Now</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>Cenovus Energy Inc. (NYSE:CVE) is included among the 15 Best Natural Gas and Oil Dividend Stock to Buy Now. Cenovus Energy Inc. (NYSE:CVE) made headlines...</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>Cenovus Energy Inc. (NYSE:CVE) is included among the 15 Best Natural Gas and Oil Dividend Stock to Buy Now.
+Cenovus Energy (CVE) - Among the Best Oil and Gas Dividend Stocks to Buy Now
+Image by Ste… [+1701 chars]</t>
+        </is>
+      </c>
+      <c r="G304" t="n">
+        <v>0.9657</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/shell-plc-shel-good-option-021203105.html</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Sultan Khalid</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>2025-09-24T02:12:03Z</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>Is Shell plc (SHEL) a Good Option for Dividend Income?</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>Shell plc (NYSE:SHEL) is included among the 15 Best Natural Gas and Oil Dividend Stock to Buy Now. Thanks to its strong cash generation and robust balance...</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>Shell plc (NYSE:SHEL) is included among the 15 Best Natural Gas and Oil Dividend Stock to Buy Now.
+Is Shell plc (SHEL) a Good Option for Dividend Income?
+Thanks to its strong cash generation and ro… [+1486 chars]</t>
+        </is>
+      </c>
+      <c r="G305" t="n">
+        <v>0.9587</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/jim-cramer-shows-bearish-sentiment-074311221.html</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Syeda Seirut Javed</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>2025-09-22T07:43:11Z</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>Jim Cramer Shows Bearish Sentiment Toward Nordic American Tankers</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>Nordic American Tankers Limited (NYSE:NAT) is one of the stocks Jim Cramer recently gave takes on. Answering a caller’s query about the stock, Cramer...</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>Nordic American Tankers Limited (NYSE:NAT) is one of the stocks Jim Cramer recently gave takes on. Answering a callers query about the stock, Cramer remarked, Oh no, no, no. I mean, no, no, were not … [+1098 chars]</t>
+        </is>
+      </c>
+      <c r="G306" t="n">
+        <v>-0.872</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/crude_oil_sentiment_score_.xlsx
+++ b/data/crude_oil_sentiment_score_.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G306"/>
+  <dimension ref="A1:G316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11303,6 +11303,365 @@
         <v>-0.872</v>
       </c>
     </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/u-allow-india-buy-oil-150000715.html</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Michael Kern</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>2025-09-25T15:00:00Z</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>Should the U.S. Allow India To Buy Oil From Iran and Venezuela?</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>India has informed the US Administration that it could significantly reduce imports of Russian crude oil if allowed to purchase Iranian and Venezuelan oil...</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>India could significantly reduce imports of Russian crude oil if the United States allows purchases of Iranian and Venezuelan oil, Indian officials have told the U.S. Administration this week, a sour… [+2225 chars]</t>
+        </is>
+      </c>
+      <c r="G307" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/arbitrage-window-closing-american-crude-120000486.html</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Tsvetana Paraskova</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>2025-09-26T12:00:00Z</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>Arbitrage Window Closing for American Crude in Asia</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>Surging tanker rates and cheaper Middle Eastern oil are threatening to close the arbitrage window for American crude shipments to Asia.</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>The arbitrage window for American crude shipments to Asia could soon close amid surging tanker rates and cheaper Middle Eastern oil which is also closer to the world’s top demand region than the U.S.… [+1936 chars]</t>
+        </is>
+      </c>
+      <c r="G308" t="n">
+        <v>-0.7964</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/pakistan-turns-vitol-more-u-200500571.html</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Editorial Dept</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>2025-09-26T20:05:00Z</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>Pakistan Turns to Vitol for More U.S. Crude</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>Pakistan has taken another step in diversifying its crude oil supplies with a second purchase of U.S. crude, breaking from its traditional reliance on Middle...</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>Pakistan has taken another step in diversifying its crude oil supplies with a second purchase of U.S. crude, breaking from its traditional reliance on Middle Eastern imports.
+Cnergyico, the country’… [+1924 chars]</t>
+        </is>
+      </c>
+      <c r="G309" t="n">
+        <v>-0.9077</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/forget-opec-warnings-real-oil-190000048.html</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Cyril Widdershoven</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>2025-09-26T19:00:00Z</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>Forget OPEC Warnings The Real Oil Shock Is Happening Inside Russia</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>Ukraine’s drone and missile strikes on Russian refineries, depots, and ports have taken over 1 million bpd of refining capacity offline.</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>While the world is watching the UN General Assembly discussions on Gaza-Israel, hybrid warfare in Europe (drones) and Trump, global oil markets are showing increased instability, as Ukrainian drones … [+5971 chars]</t>
+        </is>
+      </c>
+      <c r="G310" t="n">
+        <v>-0.7003</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/ngl-energy-partners-ngl-among-160320191.html</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Sultan Khalid</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>2025-09-26T16:03:20Z</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>NGL Energy Partners (NGL): Among the Energy Stocks that Fell This Week</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>The share price of NGL Energy Partners LP (NYSE:NGL) fell by 8.91% between September 18 and September 25, 2025, putting it among the Energy Stocks that Lost ...</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>The share price of NGL Energy Partners LP (NYSE:NGL) fell by 8.91% between September 18 and September 25, 2025, putting it among the Energy Stocks that Lost the Most This Week.
+NGL Energy Partners (… [+1341 chars]</t>
+        </is>
+      </c>
+      <c r="G311" t="n">
+        <v>0.8126</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/analysts-see-upside-energy-transfer-151001882.html</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Rizwan Siddiqui</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>2025-09-26T15:10:01Z</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>Analysts See Upside as Energy Transfer (ET) Fortifies Balance Sheet for Future Opportunities</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>Energy Transfer LP (NYSE:ET) is one of the best value stocks in Goldman Sachs’ portfolio. Energy Transfer is one of the largest and most diversified...</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>Energy Transfer LP (NYSE:ET) is one of the best value stocks in Goldman Sachs portfolio. Energy Transfer is one of the largest and most diversified midstream operators in North America, with an exten… [+2290 chars]</t>
+        </is>
+      </c>
+      <c r="G312" t="n">
+        <v>0.926</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/oil-set-biggest-weekly-gain-014552362.html</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Reuters</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>2025-09-26T01:45:52Z</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>Oil set for biggest weekly gain in three months as Russia cuts fuel exports</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>Brent futures climbed 15 cents, or 0.2%, to $69.57 a barrel by 0100 GMT, while U.S. West Texas Intermediate (WTI) crude futures gained 23 cents, or 0.4%, to ...</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>(Reuters) -Oil prices edged up on Friday, on track to rise at their steepest rate since early June as Ukraine's attacks on Russia's energy infrastructure push Moscow to restrict fuel exports and clos… [+1752 chars]</t>
+        </is>
+      </c>
+      <c r="G313" t="n">
+        <v>-0.296</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/exxon-mobil-begins-production-stock-010350301.html</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Reuters</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>2025-09-23T01:03:50Z</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>Exxon Mobil begins production at new base stock facilities in Singapore</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>Exxon Mobil Corp has started production at new facilities at its Singapore oil refinery complex to produce base stocks from residue fuel, it said on Tuesday....</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>(Reuters) -Exxon Mobil Corp has started production at new facilities at its Singapore oil refinery complex to produce base stocks from residue fuel, it said on Tuesday.
+The technology combines proce… [+627 chars]</t>
+        </is>
+      </c>
+      <c r="G314" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/india-asks-us-allow-iran-100855355.html</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Ruchi Bhatia and Rakesh Sharma</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>2025-09-26T03:48:34Z</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>India Asks US to Allow Iran Oil to Help Curb Russia Trade</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>Indian officials have again told the Trump administration that a significant reduction in Russian oil imports by the South Asian nation’s refiners would...</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>The Kharg Island oil terminal, Iran.
+(Bloomberg) --
+Most Read from Bloomberg
+Indian officials have again told the Trump administration that a significant reduction in Russian oil imports by the So… [+2389 chars]</t>
+        </is>
+      </c>
+      <c r="G315" t="n">
+        <v>0.6597</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/morning-bid-more-fedspeak-more-104528124.html</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Anna  Szymanski</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>2025-09-25T10:45:28Z</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>Morning Bid: More Fedspeak, more questions</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>Federal Reserve Chair Jerome Powell’s warning about stretched valuations has perhaps injected a bit of caution into markets, given the run-up in equities...</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>By Anna Szymanski
+What matters in U.S. and global markets today
+By Anna Szymanski, Editor-in-Charge, Reuters Open Interest
+Wall Street looks set for a weak opening ahead of the bell on Thursday. F… [+4550 chars]</t>
+        </is>
+      </c>
+      <c r="G316" t="n">
+        <v>0.0516</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/crude_oil_sentiment_score_.xlsx
+++ b/data/crude_oil_sentiment_score_.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G316"/>
+  <dimension ref="A1:G348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11335,7 +11335,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
@@ -11662,6 +11662,1143 @@
         <v>0.0516</v>
       </c>
     </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>https://uk.finance.yahoo.com/news/oil-slips-kurdistan-crude-exports-003856411.html</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Florence Tan</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>2025-09-29T00:38:56Z</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>Oil slips as Kurdistan crude exports resume, OPEC+ plans output hike</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>SINGAPORE (Reuters) -Oil prices slipped nearly 1% on Monday after Iraq's Kurdistan region resumed crude oil exports via Turkey over the weekend and as OPEC+ ...</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>By Florence Tan
+SINGAPORE (Reuters) -Oil prices slipped nearly 1% on Monday after Iraq's Kurdistan region resumed crude oil exports via Turkey over the weekend and as OPEC+ plans another oil output … [+2054 chars]</t>
+        </is>
+      </c>
+      <c r="G317" t="n">
+        <v>-0.8126</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/warren-buffett-berkshire-hathaway-may-193023147.html</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Jordan Blum</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>2025-10-02T19:30:23Z</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>Warren Buffett’s Berkshire Hathaway may have scored a ‘genius’ win-win in $10 billion acquisition that may be the last big deal of his career</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>Berkshire Hathaway gets a strong stand-alone business, while parent Oxy will get plenty of cash to pay down debt.</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>The big move by Warren Buffetts Berkshire Hathaway to buy the chemicals business of oil giant Occidental Petroleum for nearly $10 billion is a double win for Berkshire, analysts say, in Buffetts pote… [+5669 chars]</t>
+        </is>
+      </c>
+      <c r="G318" t="n">
+        <v>0.5859</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/chevrons-los-angeles-refinery-down-222502189.html</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>By Erwin Seba, Shivani Tanna, Nicole Jao and Shariq Khan</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>2025-10-03T22:25:02Z</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>Chevron's Los Angeles refinery down after large fire erupted in jet fuel unit</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>(Reuters) -Chevron's 285,000-barrel-per-day El Segundo refinery in southern California had taken multiple units offline on Friday after a large fire erupted ...</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>By Erwin Seba, Shivani Tanna, Nicole Jao and Shariq Khan
+(Reuters) -Chevron's 285,000-barrel-per-day El Segundo refinery in southern California had taken multiple units offline on Friday after a lar… [+5097 chars]</t>
+        </is>
+      </c>
+      <c r="G319" t="n">
+        <v>-0.4404</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/oil-prices-set-sharpest-weekly-061135756.html</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Irina Slav</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>2025-10-03T06:11:35Z</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>Oil Prices Set for Sharpest Weekly Decline Since June Ahead of OPEC+ Meeting</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>Crude oil prices plunged this week on fears OPEC+ will extend production hikes, deepening supply concerns despite steady Asian demand.</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>Crude oil prices were on course to book their steepest decline in four months following reports that OPEC+ was about to extend its production boost for another month at its Sunday meeting.
+At the ti… [+1777 chars]</t>
+        </is>
+      </c>
+      <c r="G320" t="n">
+        <v>-0.0772</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/argentina-became-latin-americas-4th-210000495.html</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Matthew Smith</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>2025-09-29T21:00:00Z</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>How Argentina Became Latin America's 4th Largest Crude Oil Producer</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>Argentina sets a new production record, becoming Latin America's fourth-largest crude oil producer, driven by the prolific Vaca Muerta shale formation and...</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>Argentina’s federal government, for over a decade, has hungrily eyed the vast hydrocarbon potential of the Vaca Muerta (dead cow in Spanish) shale formation in Neuquén Province. It was in 2011 that t… [+5731 chars]</t>
+        </is>
+      </c>
+      <c r="G321" t="n">
+        <v>-0.5719</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/oil-prices-edge-higher-steep-021622164.html</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Charles Kennedy</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>2025-10-01T02:16:22Z</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>Oil Prices Edge Higher After Steep Two-Day Selloff</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>Oil prices rebounded modestly in Asian trade Wednesday as traders weighed tighter U.S. crude supplies against uncertainty over a potential larger OPEC...</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>Oil prices recovered slightly in early Asian trading on Wednesday after two straight sessions of steep declines, as traders weighed the prospect of a larger OPEC+ output increase against signs of tig… [+2339 chars]</t>
+        </is>
+      </c>
+      <c r="G322" t="n">
+        <v>0.6597</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/global-crude-exports-set-hit-000000022.html</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Alex Kimani</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>2025-10-01T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>Global Crude Exports Set To Hit All-Time High In October</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>Global crude exports set new highs, reaching 40.4 mb/d in September, driven by Saudi Arabia, Iraq, Brazil, and Guyana.</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>Previously, we reported that U.S. oil production has maintained its upward trajectory in the current year even as oil prices have remained depressed. According to data from the Energy Information Adm… [+4032 chars]</t>
+        </is>
+      </c>
+      <c r="G323" t="n">
+        <v>-0.7096</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/solar-could-help-iraq-boost-083628643.html</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Irina Slav</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>2025-10-03T08:36:28Z</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>Solar Could Help Iraq Boost Oil Exports by 250,000 Bpd</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>Iraq is developing large-scale solar projects to cut domestic oil use, potentially freeing up 250,000 barrels per day for export while simultaneously...</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>Iraq could ramp up its crude oil exports by some 250,000 barrels daily as it saves this amount from local consumption with the help of several solar power projects.
+Zawya reported the news, citing a… [+1732 chars]</t>
+        </is>
+      </c>
+      <c r="G324" t="n">
+        <v>0.5266999999999999</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/big-oil-short-term-worries-230000538.html</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Irina Slav</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>2025-10-01T23:00:00Z</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>Big Oil’s Short-Term Worries Mask Bullish Long Term</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>Oil and gas will remain critical for oil majors despite jitters over reduced buybacks and dividends.</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>TotalEnergies said this week it would cut its capital spending by $1 billion annually over the next four years. Chevron and ConocoPhillips are cutting jobs—as are many others in the industry. Shale m… [+5012 chars]</t>
+        </is>
+      </c>
+      <c r="G325" t="n">
+        <v>-0.6597</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/double-supply-whammy-knocks-down-154100772.html</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Tom Kool</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>2025-09-30T15:41:00Z</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>Double Supply Whammy Knocks Down Oil Prices</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>OPEC+ supply hike chatter and Iraq’s Kirkuk-Ceyhan restart sparked the steepest daily oil price drop in nearly two months</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>OPEC+ supply hike chatter and Iraqs Kirkuk-Ceyhan restart sparked the steepest daily oil price drop in nearly two months.
+China Triples Indonesian Oil Imports as Iranian Tankers Shift Routes
+- Chin… [+6171 chars]</t>
+        </is>
+      </c>
+      <c r="G326" t="n">
+        <v>-0.2732</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/cnooc-expands-presence-south-china-220000865.html</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Charles Kennedy</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>2025-10-02T22:00:00Z</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>CNOOC Expands Presence in South China Sea with New Projects</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>China's subsea pipeline network has reached 10,000 kilometers, marking a significant milestone in its efforts to boost domestic oil and gas production and...</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>China’s network of subsea pipelines has reached a total length of 10,000 kilometers, CNOOC reported this week. The news was hailed by media as a milestone in offshore oil and gas development in the w… [+3580 chars]</t>
+        </is>
+      </c>
+      <c r="G327" t="n">
+        <v>0.4019</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/opec-meets-future-oil-production-030338225.html</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Pol-Malo LE BRIS</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>2025-10-05T03:03:38Z</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>OPEC+ meets with future oil production hanging in the balance</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>Saudi Arabia, Russia and six other key members of the OPEC+ alliance are likely to agree to raise crude output when they meet virtually on Sunday, with...</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>The OPEC+ alliance has shifted its strategy and has sought to gain market share by increasing output (Paul Ratje)
+Saudi Arabia, Russia and six other key members of the OPEC+ alliance are likely to a… [+3297 chars]</t>
+        </is>
+      </c>
+      <c r="G328" t="n">
+        <v>0.6808</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/standard-chartered-bucks-bearish-trend-230000436.html</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Alex Kimani</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>2025-09-28T23:00:00Z</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>Standard Chartered Bucks Bearish Trend, Forecasts Oil Price Gains in 2026</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>Wall Street forecasts a surplus and prices in the $50s next year, while Standard Chartered expects stimulus and supply cuts to support a rebound.</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>We are in the final innings of the third quarter, and energy markets remain tepid amid bearish sentiment. Brent crude for November delivery was trading at $69.45 per barrel at 8.45 am ET on Friday, m… [+5009 chars]</t>
+        </is>
+      </c>
+      <c r="G329" t="n">
+        <v>-0.0516</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/us-oil-futures-rise-settlement-213200448.html</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Yasin Ebrahim</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>2025-09-30T21:32:00Z</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>US oil futures rise from settlement lows as API shows fall in crude stocks</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>Investing.com -- U.S. crude oil futures rose slightly from post-settlement levels Tuesday after the American Petroleum Institute reported a surprise decline ...</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>Investing.com -- U.S. crude oil futures rose slightly from post-settlement levels Tuesday after the American Petroleum Institute reported a surprise decline in weekly domestic crude inventories, thou… [+954 chars]</t>
+        </is>
+      </c>
+      <c r="G330" t="n">
+        <v>-0.8957000000000001</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/iraqi-kurdistan-oil-exports-resume-160000448.html</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Simon Watkins</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>2025-09-29T16:00:00Z</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>Iraqi Kurdistan Oil Exports Resume To Turkey, But For How Long?</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>Disputes persist over unpaid debts exceeding $1 billion to foreign oil firms, Baghdad’s rejection of Kurdish autonomy, and Turkey/Iran’s opposition</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>Crude oil flows from the semi-autonomous Kurdistan region of Iraq (KRI) through the Iraq-Turkey Pipeline (ITP from Kirkuk to Ceyhan resumed on Saturday (27 September) for the first time since 25 Marc… [+8489 chars]</t>
+        </is>
+      </c>
+      <c r="G331" t="n">
+        <v>-0.7227</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>https://sg.finance.yahoo.com/news/oil-settles-lower-investors-brace-222011619.html</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>By Georgina McCartney</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>2025-09-30T22:20:11Z</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>Oil settles lower as investors brace for possible OPEC+ output hike</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>HOUSTON (Reuters) -Oil prices settled lower on Tuesday as investors braced for a supply surplus due to potential OPEC+ plans for a larger output hike next...</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>By Georgina McCartney
+HOUSTON (Reuters) -Oil prices settled lower on Tuesday as investors braced for a supply surplus due to potential OPEC+ plans for a larger output hike next month and the resumpt… [+3458 chars]</t>
+        </is>
+      </c>
+      <c r="G332" t="n">
+        <v>-0.5266999999999999</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/saudi-arabia-expected-lift-november-093527517.html</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Siyi Liu</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>2025-09-29T09:35:27Z</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>Saudi Arabia expected to lift November crude prices to Asia</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>Saudi Arabia, the world's biggest oil exporter, is expected to lift November crude oil prices for Asian buyers to track gains in Middle East benchmarks...</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>By Siyi Liu
+SINGAPORE (Reuters) -Saudi Arabia, the world's biggest oil exporter, is expected to lift November crude oil prices for Asian buyers to track gains in Middle East benchmarks, although ris… [+2328 chars]</t>
+        </is>
+      </c>
+      <c r="G333" t="n">
+        <v>-0.7184</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/asian-shares-gold-rise-us-021247769.html</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Rocky Swift</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>2025-09-30T02:12:47Z</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>Asian shares, gold rise on US shutdown watch; crude falls</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>TOKYO (Reuters) -Shares in Asia edged higher and gold continued its record climb on Tuesday as markets weighed prospects for a U.S. government shutdown that ...</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>By Rocky Swift
+TOKYO (Reuters) -Shares in Asia edged higher and gold continued its record climb on Tuesday as markets weighed prospects for a U.S. government shutdown that would delay closely watche… [+3412 chars]</t>
+        </is>
+      </c>
+      <c r="G334" t="n">
+        <v>0.1027</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/ubs-highlights-exxon-mobil-xom-055306666.html</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Sheryar Siddiq</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>2025-10-02T05:53:06Z</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>UBS Highlights Exxon Mobil’s (XOM) Long-Term Energy Investment Potential</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>Exxon Mobil Corporation (NYSE:XOM) ranks among the stocks with low beta that can beat market volatility. On September 23, UBS restated its Buy rating for...</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>Exxon Mobil Corporation (NYSE:XOM) ranks among the stocks with low beta that can beat market volatility. On September 23, UBS restated its Buy rating for Exxon Mobil Corporation (NYSE:XOM), with a $1… [+1622 chars]</t>
+        </is>
+      </c>
+      <c r="G335" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/crude-oil-plummets-lowest-since-163900277.html</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Tom Kool</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>2025-10-01T16:39:00Z</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>Crude Oil Plummets to Lowest Since June</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>Crude oil benchmarks were trading even lower midday Wednesday, at prices lower than they’ve dipped for several months</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>Crude oil benchmarks were trading even lower midday Wednesday, at prices lower than they’ve dipped for several months, even as OPEC+ emphasizes that it is committed to a calibrated increase in crude … [+2146 chars]</t>
+        </is>
+      </c>
+      <c r="G336" t="n">
+        <v>-0.9287</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>https://www.yahoo.com/news/articles/exclusive-russias-western-port-oil-154740587.html</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Reuters</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>2025-10-01T15:47:40Z</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>Exclusive-Russia's western port oil exports up 25% after drone attacks</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>MOSCOW (Reuters) -Russia boosted oil exports via its western ports by 25% in September versus August, according to three trading sources, as refinery outages...</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>MOSCOW (Reuters) -Russia boosted oil exports via its western ports by 25% in September versus August, according to three trading sources, as refinery outages caused by Ukrainian drone attacks freed u… [+1301 chars]</t>
+        </is>
+      </c>
+      <c r="G337" t="n">
+        <v>-0.1531</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/dht-holdings-inc-dht-navigates-230822501.html</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Rameen Kasana</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>2025-09-29T23:08:22Z</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>DHT Holdings, Inc. (DHT) Navigates Oil Market Pressures Despite Investor Trim</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>DHT Holdings, Inc. (NYSE:DHT) is among the best low-priced growth stocks to buy now. According to a latest Form 13F filing with the SEC, Rhumbline Advisers...</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>DHT Holdings, Inc. (NYSE:DHT) is among the best low-priced growth stocks to buy now. According to a latest Form 13F filing with the SEC, Rhumbline Advisers has reduced its position in the shares of D… [+1783 chars]</t>
+        </is>
+      </c>
+      <c r="G338" t="n">
+        <v>0.7717000000000001</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>https://www.yahoo.com/news/articles/yemens-houthis-target-us-oil-213223886.html</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>By Lisa Baertlein</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>2025-09-30T21:32:23Z</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>Yemen's Houthis say they will target US oil firms with sanctions</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>LOS ANGELES (Reuters) -Yemen's Houthis will target U.S. oil majors including ExxonMobil and Chevron with sanctions, a body affiliated with the Iran-backed...</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>(Corrects to make clear Houthis' HOCC announcement is about sanctions, not attacks, in paragraphs 1 and 3)
+By Lisa Baertlein
+LOS ANGELES (Reuters) -Yemen's Houthis will target U.S. oil majors inclu… [+2597 chars]</t>
+        </is>
+      </c>
+      <c r="G339" t="n">
+        <v>0.6131</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/oil-prices-rise-russian-sanctions-022641438.html</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Charles Kennedy</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>2025-10-02T02:26:41Z</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>Oil Prices Rise on Russian Sanctions Risk</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>Oil prices recovered slightly from multi-month lows as G7 sanctions threats against Russian crude spurred speculative buying, though weak U.S. demand and...</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>In early Asian trade on Thursday, oil prices recovered slightly from 16-week lows, with WTI rising to $62.09 and Brent trading at $65.68. Markets were buoyed by renewed expectations of tougher sancti… [+2353 chars]</t>
+        </is>
+      </c>
+      <c r="G340" t="n">
+        <v>-0.235</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/oil-falls-opec-plans-further-005332794.html</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Anjana Anil</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>2025-09-30T00:53:32Z</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>Oil falls as OPEC+ plans to further increase output</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>(Reuters) -Oil prices fell on Tuesday as another anticipated production increase by OPEC+ and the resumption of oil exports from Iraq's Kurdistan region via ...</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>By Anjana Anil
+(Reuters) -Oil prices fell on Tuesday as another anticipated production increase by OPEC+ and the resumption of oil exports from Iraq's Kurdistan region via Turkey reinforced the outl… [+1833 chars]</t>
+        </is>
+      </c>
+      <c r="G341" t="n">
+        <v>0.5574</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/analysis-fuel-oil-demand-defies-141848358.html</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>By Enes Tunagur</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>2025-10-02T14:18:48Z</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>Analysis-Fuel oil demand defies forecasts due to Red Sea disruptions and shadow fleet expansion</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>LONDON (Reuters) -Fuel oil used in ships and power plants is seeing unexpected demand, with efforts to curb its use more than offset by an expanding shadow...</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>By Enes Tunagur
+LONDON (Reuters) -Fuel oil used in ships and power plants is seeing unexpected demand, with efforts to curb its use more than offset by an expanding shadow fleet of oil tankers servi… [+4720 chars]</t>
+        </is>
+      </c>
+      <c r="G342" t="n">
+        <v>-0.5266999999999999</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>https://www.yahoo.com/news/articles/hungary-clings-russian-oil-gas-052418085.html</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>JUSTIN SPIKE</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>2025-10-04T05:24:18Z</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>Hungary clings to Russian oil and gas as EU and NATO push to cut supplies</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>As the European Union pushes to fully sever its reliance on Russian energy and the administration of U.S. President Donald Trump urges NATO members to...</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>BUDAPEST, Hungary (AP) As the European Union pushes to fully sever its reliance on Russian energy and the administration of U.S. President Donald Trump urges NATO members to abandon Russian oil, one … [+7079 chars]</t>
+        </is>
+      </c>
+      <c r="G343" t="n">
+        <v>-0.4404</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/brent-prices-retreat-below-70-130000342.html</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Tsvetana Paraskova</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>2025-09-29T13:00:00Z</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>Brent Prices Retreat below $70 as OPEC+ Mulls Another Output Hike</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>Brent Crude prices fell below $70 a barrel as the market reacted to resumed oil exports from Iraq's Kurdistan region and anticipated further output increases...</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>Brent Crude prices failed to hold onto the $70 per barrel handle for more than a day, dipping by 2% early on Monday as the market focused on imminent supply increases.
+As of 7:28 a.m. EDT on Monday,… [+1973 chars]</t>
+        </is>
+      </c>
+      <c r="G344" t="n">
+        <v>-0.5574</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/apa-corp-apa-reports-q2-180945728.html</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Hamna Asim</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>2025-10-01T18:09:45Z</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>APA Corp (APA) Reports Q2 2025: Improved Permian Efficiency and Steady Dividend Payouts</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>APA Corporation (NASDAQ:APA) is a Texas-based energy company that explores, develops, and sells natural gas, crude oil, and natural gas liquids. It operates ...</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>APA Corporation (NASDAQ:APA) is a Texas-based energy company that explores, develops, and sells natural gas, crude oil, and natural gas liquids. It operates oil and gas projects in the United States,… [+1695 chars]</t>
+        </is>
+      </c>
+      <c r="G345" t="n">
+        <v>0.8689</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/bp-greenlights-5-billion-tiber-070329097.html</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Sheila Dang</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>2025-09-29T07:03:29Z</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>BP greenlights $5 billion Tiber-Guadalupe drilling project in US Gulf</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>HOUSTON (Reuters) -British oil major BP said on Monday it will move ahead with a $5 billion offshore drilling project in the U.S. Gulf of Mexico called Tiber...</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>By Sheila Dang
+HOUSTON (Reuters) -British oil major BP said on Monday it will move ahead with a $5 billion offshore drilling project in the U.S. Gulf of Mexico called Tiber-Guadalupe, marking anothe… [+1401 chars]</t>
+        </is>
+      </c>
+      <c r="G346" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/slow-demise-russian-oil-production-000000572.html</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>David Messler</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>2025-09-30T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>The Slow Demise of Russian Oil Production</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>Global sanctions and aging infrastructure are causing a significant decline in Russian oil production, with long-term implications for global energy markets.</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>For most of the last decade, OPEC and Russia, collectively referred to as OPEC+, have aligned their interests in maintaining high oil prices and set production quotas that furthered this goal. Saudi … [+6854 chars]</t>
+        </is>
+      </c>
+      <c r="G347" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/exxon-cut-2-000-workers-100000114.html</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Kevin Crowley and Robert Tuttle</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>2025-09-30T15:54:08Z</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>Exxon to Cut 2,000 Jobs in Global Restructuring</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>The reductions represent about 3% to 4% of Exxon’s global workforce and are part of the company’s ongoing efficiency drive, Chief Executive Officer Darren...</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>(Bloomberg) -- Exxon Mobil Corp. plans to cut about 2,000 jobs globally as the Texas oil company consolidates smaller offices into regional hubs as part of its long-term restructuring plan.
+The redu… [+3049 chars]</t>
+        </is>
+      </c>
+      <c r="G348" t="n">
+        <v>-0.4939</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
